--- a/Code/Results/Cases/Case_4_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.36648302962376</v>
+        <v>12.45259105729622</v>
       </c>
       <c r="C2">
-        <v>16.38821328246806</v>
+        <v>9.842703261832062</v>
       </c>
       <c r="D2">
-        <v>7.292897411405698</v>
+        <v>5.956106969087947</v>
       </c>
       <c r="E2">
-        <v>30.16356819239608</v>
+        <v>16.60502089598162</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>23.89275750479015</v>
+        <v>20.93877928243117</v>
       </c>
       <c r="H2">
-        <v>7.736013458508102</v>
+        <v>11.84167763901382</v>
       </c>
       <c r="I2">
-        <v>9.86991812511298</v>
+        <v>16.07648682201348</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.96250685938355</v>
+        <v>15.51855463649094</v>
       </c>
       <c r="O2">
-        <v>13.46021515676801</v>
+        <v>17.02873520852619</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.99085822828536</v>
+        <v>11.78067506210959</v>
       </c>
       <c r="C3">
-        <v>15.38577061026066</v>
+        <v>9.316828665898219</v>
       </c>
       <c r="D3">
-        <v>6.786628483483491</v>
+        <v>5.831789150564728</v>
       </c>
       <c r="E3">
-        <v>27.96885447572634</v>
+        <v>15.65593839455784</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>22.48637807608554</v>
+        <v>20.66430610313226</v>
       </c>
       <c r="H3">
-        <v>7.631421179041905</v>
+        <v>11.87014552292492</v>
       </c>
       <c r="I3">
-        <v>9.9383490320793</v>
+        <v>16.16736384541136</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.04112538590279</v>
+        <v>15.55265622031093</v>
       </c>
       <c r="O3">
-        <v>13.00110637992822</v>
+        <v>17.02280610789565</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.09782328228431</v>
+        <v>11.34836711799554</v>
       </c>
       <c r="C4">
-        <v>14.737327512235</v>
+        <v>8.976595823729708</v>
       </c>
       <c r="D4">
-        <v>6.458575776202705</v>
+        <v>5.755894916635675</v>
       </c>
       <c r="E4">
-        <v>26.55760922075312</v>
+        <v>15.04774331270542</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>21.61226012546135</v>
+        <v>20.50459626066835</v>
       </c>
       <c r="H4">
-        <v>7.574694563040693</v>
+        <v>11.89043252078503</v>
       </c>
       <c r="I4">
-        <v>9.995855293906049</v>
+        <v>16.22772418654024</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.09303964984066</v>
+        <v>15.5753219973269</v>
       </c>
       <c r="O4">
-        <v>12.72891822112179</v>
+        <v>17.02491259233098</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.72170508403462</v>
+        <v>11.16739676597386</v>
       </c>
       <c r="C5">
-        <v>14.46482110536961</v>
+        <v>8.83366010069407</v>
       </c>
       <c r="D5">
-        <v>6.320527190722156</v>
+        <v>5.725126245671136</v>
       </c>
       <c r="E5">
-        <v>25.96616582231722</v>
+        <v>14.79376481470514</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>21.25381176070414</v>
+        <v>20.44182278097064</v>
       </c>
       <c r="H5">
-        <v>7.55341053758541</v>
+        <v>11.89940339836621</v>
       </c>
       <c r="I5">
-        <v>10.02292771094842</v>
+        <v>16.25346377865875</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.11509190590403</v>
+        <v>15.5849934853182</v>
       </c>
       <c r="O5">
-        <v>12.62053213915334</v>
+        <v>17.02721308293745</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.65851355701138</v>
+        <v>11.13706223331008</v>
       </c>
       <c r="C6">
-        <v>14.41907377952712</v>
+        <v>8.809669193710915</v>
       </c>
       <c r="D6">
-        <v>6.297339607679979</v>
+        <v>5.72002816601874</v>
       </c>
       <c r="E6">
-        <v>25.86696019504742</v>
+        <v>14.75123024037612</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>21.19417080480222</v>
+        <v>20.43154134691738</v>
       </c>
       <c r="H6">
-        <v>7.549985418087488</v>
+        <v>11.90093544312136</v>
       </c>
       <c r="I6">
-        <v>10.02763546545565</v>
+        <v>16.25780667015595</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.11880729899221</v>
+        <v>15.58662572115425</v>
       </c>
       <c r="O6">
-        <v>12.60269033088947</v>
+        <v>17.02768206147755</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09280024399197</v>
+        <v>11.34594568802912</v>
       </c>
       <c r="C7">
-        <v>14.73368579741504</v>
+        <v>8.974685396651475</v>
       </c>
       <c r="D7">
-        <v>6.456731727054335</v>
+        <v>5.755479251349746</v>
       </c>
       <c r="E7">
-        <v>26.54969943644505</v>
+        <v>15.04434251497534</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>21.60743439522219</v>
+        <v>20.50374020740657</v>
       </c>
       <c r="H7">
-        <v>7.57440017115007</v>
+        <v>11.89055065876848</v>
       </c>
       <c r="I7">
-        <v>9.996206004077832</v>
+        <v>16.22806670099821</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.09333344740957</v>
+        <v>15.57545066822639</v>
       </c>
       <c r="O7">
-        <v>12.72744611310331</v>
+        <v>17.02493778366723</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.90218982904364</v>
+        <v>12.22510256129667</v>
       </c>
       <c r="C8">
-        <v>16.04941442990557</v>
+        <v>9.665020585944543</v>
       </c>
       <c r="D8">
-        <v>7.121882209517079</v>
+        <v>5.913180466555808</v>
       </c>
       <c r="E8">
-        <v>29.41983884973808</v>
+        <v>16.28320465616874</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.41026319926996</v>
+        <v>20.84236819320843</v>
       </c>
       <c r="H8">
-        <v>7.698365028024353</v>
+        <v>11.85090934609924</v>
       </c>
       <c r="I8">
-        <v>9.890141234905467</v>
+        <v>16.10687160969751</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.98884666190847</v>
+        <v>15.529954764759</v>
       </c>
       <c r="O8">
-        <v>13.2999551044376</v>
+        <v>17.0254966283435</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.06846239686773</v>
+        <v>13.78666251411019</v>
       </c>
       <c r="C9">
-        <v>18.36827721207327</v>
+        <v>10.87866219674897</v>
       </c>
       <c r="D9">
-        <v>8.291578886781391</v>
+        <v>6.223804516723461</v>
       </c>
       <c r="E9">
-        <v>34.55929810733232</v>
+        <v>18.62244081700415</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.84770389587051</v>
+        <v>21.57201478349177</v>
       </c>
       <c r="H9">
-        <v>8.00301539565551</v>
+        <v>11.79554429394902</v>
       </c>
       <c r="I9">
-        <v>9.816904495342863</v>
+        <v>15.90561641751734</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.81378055591101</v>
+        <v>15.45441371474248</v>
       </c>
       <c r="O9">
-        <v>14.49578373686499</v>
+        <v>17.07226901834259</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.16563346053059</v>
+        <v>14.82886789669095</v>
       </c>
       <c r="C10">
-        <v>19.91409851931836</v>
+        <v>11.68240967768278</v>
       </c>
       <c r="D10">
-        <v>9.071509200124048</v>
+        <v>6.450147289272349</v>
       </c>
       <c r="E10">
-        <v>38.06228309903504</v>
+        <v>20.27898379871882</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.41785733867709</v>
+        <v>22.14188519452335</v>
       </c>
       <c r="H10">
-        <v>8.267000275631215</v>
+        <v>11.76862657240399</v>
       </c>
       <c r="I10">
-        <v>9.861795227310205</v>
+        <v>15.78024639288336</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.70475338429587</v>
+        <v>15.4072129491862</v>
       </c>
       <c r="O10">
-        <v>15.41448722101381</v>
+        <v>17.13449681639049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.07097670348207</v>
+        <v>15.27929592248336</v>
       </c>
       <c r="C11">
-        <v>20.58368638471546</v>
+        <v>12.02862440457294</v>
       </c>
       <c r="D11">
-        <v>9.409683267783119</v>
+        <v>6.552173822419537</v>
       </c>
       <c r="E11">
-        <v>39.60288847642146</v>
+        <v>20.9900733905435</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.56983192241995</v>
+        <v>22.40709558416966</v>
       </c>
       <c r="H11">
-        <v>8.396330885018573</v>
+        <v>11.75939112611036</v>
       </c>
       <c r="I11">
-        <v>9.907224551645436</v>
+        <v>15.72816127404673</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.65975287308133</v>
+        <v>15.38753435927191</v>
       </c>
       <c r="O11">
-        <v>15.84051121773598</v>
+        <v>17.16883123613025</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.40690454999693</v>
+        <v>15.44640247704637</v>
       </c>
       <c r="C12">
-        <v>20.83247729213845</v>
+        <v>12.15691555007192</v>
       </c>
       <c r="D12">
-        <v>9.535404635634812</v>
+        <v>6.590632187705723</v>
       </c>
       <c r="E12">
-        <v>40.17925743743783</v>
+        <v>21.25327283269063</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>31.00270865202446</v>
+        <v>22.50826634546753</v>
       </c>
       <c r="H12">
-        <v>8.446675369452814</v>
+        <v>11.75632820601415</v>
       </c>
       <c r="I12">
-        <v>9.928313753603101</v>
+        <v>15.70915479669181</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.64340490776106</v>
+        <v>15.38033985909519</v>
       </c>
       <c r="O12">
-        <v>16.00297491530275</v>
+        <v>17.18269497478835</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.33486203020768</v>
+        <v>15.41056777470941</v>
       </c>
       <c r="C13">
-        <v>20.7791065498551</v>
+        <v>12.12941113538922</v>
       </c>
       <c r="D13">
-        <v>9.508431396957121</v>
+        <v>6.582357998604619</v>
       </c>
       <c r="E13">
-        <v>40.05542842370428</v>
+        <v>21.19685776348977</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.9096276610286</v>
+        <v>22.48644630706659</v>
       </c>
       <c r="H13">
-        <v>8.43577119603197</v>
+        <v>11.75696852017679</v>
       </c>
       <c r="I13">
-        <v>9.923594433304286</v>
+        <v>15.7132161995615</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.64689439217282</v>
+        <v>15.38187788561482</v>
       </c>
       <c r="O13">
-        <v>15.96793501120626</v>
+        <v>17.17967091928958</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.09875152597396</v>
+        <v>15.2931135166236</v>
       </c>
       <c r="C14">
-        <v>20.60424968077009</v>
+        <v>12.03923546900884</v>
       </c>
       <c r="D14">
-        <v>9.420072982641461</v>
+        <v>6.555341591525046</v>
       </c>
       <c r="E14">
-        <v>39.65044388309538</v>
+        <v>21.01184852115797</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.6055113101947</v>
+        <v>22.41540477778569</v>
       </c>
       <c r="H14">
-        <v>8.400445064538435</v>
+        <v>11.75913042464144</v>
       </c>
       <c r="I14">
-        <v>9.908880051564863</v>
+        <v>15.72658319630764</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.65839384163508</v>
+        <v>15.38693730855966</v>
       </c>
       <c r="O14">
-        <v>15.85385446795488</v>
+        <v>17.1699545690232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.95323059864829</v>
+        <v>15.22071724080378</v>
       </c>
       <c r="C15">
-        <v>20.49652613633409</v>
+        <v>11.98363342303385</v>
       </c>
       <c r="D15">
-        <v>9.365648056606728</v>
+        <v>6.538769025394892</v>
       </c>
       <c r="E15">
-        <v>39.40148287733535</v>
+        <v>20.89773490629673</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.41879891583601</v>
+        <v>22.37198285203444</v>
       </c>
       <c r="H15">
-        <v>8.378986410209825</v>
+        <v>11.76051126115182</v>
       </c>
       <c r="I15">
-        <v>9.900381651532339</v>
+        <v>15.73486441739485</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.66552878799349</v>
+        <v>15.39006985124657</v>
       </c>
       <c r="O15">
-        <v>15.78412462625128</v>
+        <v>17.16411512649496</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.10549546078728</v>
+        <v>14.79894985407603</v>
       </c>
       <c r="C16">
-        <v>19.86966831402625</v>
+        <v>11.65939112956741</v>
       </c>
       <c r="D16">
-        <v>9.049078670499071</v>
+        <v>6.443457094623099</v>
       </c>
       <c r="E16">
-        <v>37.96058446906672</v>
+        <v>20.23166051054007</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.34209731248774</v>
+        <v>22.12466320931076</v>
       </c>
       <c r="H16">
-        <v>8.258737652492986</v>
+        <v>11.76929082937428</v>
       </c>
       <c r="I16">
-        <v>9.859354464075039</v>
+        <v>15.78375030104624</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.70778942839062</v>
+        <v>15.40853503224276</v>
       </c>
       <c r="O16">
-        <v>15.38680566076503</v>
+        <v>17.13237389349339</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.57303436128209</v>
+        <v>14.53410116715687</v>
       </c>
       <c r="C17">
-        <v>19.47654463585326</v>
+        <v>11.45548964140566</v>
       </c>
       <c r="D17">
-        <v>8.850652845480171</v>
+        <v>6.384715413800089</v>
       </c>
       <c r="E17">
-        <v>37.06348084394408</v>
+        <v>19.81218941232551</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.6754818044249</v>
+        <v>21.97438679810698</v>
       </c>
       <c r="H17">
-        <v>8.187364820137786</v>
+        <v>11.77544881037528</v>
       </c>
       <c r="I17">
-        <v>9.840798893762168</v>
+        <v>15.81501115572794</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.73491408730647</v>
+        <v>15.42032175296879</v>
       </c>
       <c r="O17">
-        <v>15.14511099939025</v>
+        <v>17.11444243731378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.26218952557405</v>
+        <v>14.37954115076339</v>
       </c>
       <c r="C18">
-        <v>19.2472615497674</v>
+        <v>11.33638440833631</v>
       </c>
       <c r="D18">
-        <v>8.73495588349448</v>
+        <v>6.350842827387308</v>
       </c>
       <c r="E18">
-        <v>36.54247067678912</v>
+        <v>19.56692029329695</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.28979548506803</v>
+        <v>21.88852109025602</v>
       </c>
       <c r="H18">
-        <v>8.147180566550745</v>
+        <v>11.77927391016399</v>
       </c>
       <c r="I18">
-        <v>9.832463041779326</v>
+        <v>15.83345679728518</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.7509460704536</v>
+        <v>15.42726998462734</v>
       </c>
       <c r="O18">
-        <v>15.00685733445084</v>
+        <v>17.10469636299942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.1561522822028</v>
+        <v>14.3268293732094</v>
       </c>
       <c r="C19">
-        <v>19.16908421426236</v>
+        <v>11.2957444628042</v>
       </c>
       <c r="D19">
-        <v>8.695512095831655</v>
+        <v>6.339360714509079</v>
       </c>
       <c r="E19">
-        <v>36.36518669598838</v>
+        <v>19.48318826998582</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.15881763704089</v>
+        <v>21.85954980567455</v>
       </c>
       <c r="H19">
-        <v>8.133722642262097</v>
+        <v>11.78061761070757</v>
       </c>
       <c r="I19">
-        <v>9.830033088844255</v>
+        <v>15.83978190314152</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.75644725089583</v>
+        <v>15.42965154767777</v>
       </c>
       <c r="O19">
-        <v>14.96017925449514</v>
+        <v>17.10149411655771</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.63018988402252</v>
+        <v>14.56252559602434</v>
       </c>
       <c r="C20">
-        <v>19.51872084057008</v>
+        <v>11.47738450933224</v>
       </c>
       <c r="D20">
-        <v>8.871937494725952</v>
+        <v>6.390977771156749</v>
       </c>
       <c r="E20">
-        <v>37.15949457716553</v>
+        <v>19.85725661140079</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.74667828554616</v>
+        <v>21.9903259106516</v>
       </c>
       <c r="H20">
-        <v>8.194872505026272</v>
+        <v>11.77476396144029</v>
       </c>
       <c r="I20">
-        <v>9.842530194427294</v>
+        <v>15.81163519383862</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.73198183342254</v>
+        <v>15.4190495677731</v>
       </c>
       <c r="O20">
-        <v>15.17076114904767</v>
+        <v>17.11629255307798</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.16828953787681</v>
+        <v>15.32770699076428</v>
       </c>
       <c r="C21">
-        <v>20.6557381727093</v>
+        <v>12.06579872846923</v>
       </c>
       <c r="D21">
-        <v>9.44608900557634</v>
+        <v>6.563282087456327</v>
       </c>
       <c r="E21">
-        <v>39.76958329801253</v>
+        <v>21.06635481885261</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.69492748509291</v>
+        <v>22.43625221188587</v>
       </c>
       <c r="H21">
-        <v>8.410783697588862</v>
+        <v>11.7584836213883</v>
       </c>
       <c r="I21">
-        <v>9.913094275326289</v>
+        <v>15.72263747934831</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.65499710810423</v>
+        <v>15.38544425292459</v>
       </c>
       <c r="O21">
-        <v>15.88733190246329</v>
+        <v>17.17278514471373</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.13332408953237</v>
+        <v>15.80760737593471</v>
       </c>
       <c r="C22">
-        <v>21.37109698037168</v>
+        <v>12.43395996953183</v>
       </c>
       <c r="D22">
-        <v>9.807730427870693</v>
+        <v>6.674844322474377</v>
       </c>
       <c r="E22">
-        <v>41.43480583747302</v>
+        <v>21.82117762151871</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>31.94878282177082</v>
+        <v>22.73195799988705</v>
       </c>
       <c r="H22">
-        <v>8.559898775470019</v>
+        <v>11.75037575160867</v>
       </c>
       <c r="I22">
-        <v>9.98199262655181</v>
+        <v>15.66865441378769</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.60873753323688</v>
+        <v>15.36498106527578</v>
       </c>
       <c r="O22">
-        <v>16.49316113745422</v>
+        <v>17.21472782111734</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.62191201426427</v>
+        <v>15.55333838948734</v>
       </c>
       <c r="C23">
-        <v>20.9918098998678</v>
+        <v>12.23897167457737</v>
       </c>
       <c r="D23">
-        <v>9.615941821424194</v>
+        <v>6.615410619424999</v>
       </c>
       <c r="E23">
-        <v>40.54954968635271</v>
+        <v>21.42154180590184</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>31.28130523608353</v>
+        <v>22.57378247642988</v>
       </c>
       <c r="H23">
-        <v>8.479566865504461</v>
+        <v>11.75447090250521</v>
       </c>
       <c r="I23">
-        <v>9.943041821574312</v>
+        <v>15.69708161736706</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.63304502216969</v>
+        <v>15.37576558708895</v>
       </c>
       <c r="O23">
-        <v>16.1395594302253</v>
+        <v>17.19188463798404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.60436459906168</v>
+        <v>14.54968205569185</v>
       </c>
       <c r="C24">
-        <v>19.49966317182708</v>
+        <v>11.4674916923801</v>
       </c>
       <c r="D24">
-        <v>8.862319752497164</v>
+        <v>6.3881468714479</v>
       </c>
       <c r="E24">
-        <v>37.11610317461202</v>
+        <v>19.83689453445091</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.71449796348471</v>
+        <v>21.98311817726457</v>
       </c>
       <c r="H24">
-        <v>8.191475639484144</v>
+        <v>11.77507269458999</v>
       </c>
       <c r="I24">
-        <v>9.841740231828751</v>
+        <v>15.81315999207655</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.73330614458284</v>
+        <v>15.41962418720774</v>
       </c>
       <c r="O24">
-        <v>15.15916253419673</v>
+        <v>17.11545436174204</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.25244524742056</v>
+        <v>13.38231603209362</v>
       </c>
       <c r="C25">
-        <v>17.76884698572693</v>
+        <v>10.56563656806774</v>
       </c>
       <c r="D25">
-        <v>7.989295466801069</v>
+        <v>6.139912168608453</v>
       </c>
       <c r="E25">
-        <v>33.21883158449053</v>
+        <v>17.97450847294245</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>25.92982541633835</v>
+        <v>21.36822862306475</v>
       </c>
       <c r="H25">
-        <v>7.913725800540851</v>
+        <v>11.80811386502455</v>
       </c>
       <c r="I25">
-        <v>9.820595402218709</v>
+        <v>15.95613314063993</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.85780886141838</v>
+        <v>15.47338942186599</v>
       </c>
       <c r="O25">
-        <v>14.16495597154988</v>
+        <v>17.05471845060718</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_109/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.45259105729622</v>
+        <v>21.36648302962376</v>
       </c>
       <c r="C2">
-        <v>9.842703261832062</v>
+        <v>16.38821328246803</v>
       </c>
       <c r="D2">
-        <v>5.956106969087947</v>
+        <v>7.29289741140569</v>
       </c>
       <c r="E2">
-        <v>16.60502089598162</v>
+        <v>30.16356819239606</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>20.93877928243117</v>
+        <v>23.89275750479016</v>
       </c>
       <c r="H2">
-        <v>11.84167763901382</v>
+        <v>7.736013458508031</v>
       </c>
       <c r="I2">
-        <v>16.07648682201348</v>
+        <v>9.86991812511299</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.51855463649094</v>
+        <v>10.96250685938354</v>
       </c>
       <c r="O2">
-        <v>17.02873520852619</v>
+        <v>13.46021515676801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.78067506210959</v>
+        <v>19.99085822828537</v>
       </c>
       <c r="C3">
-        <v>9.316828665898219</v>
+        <v>15.38577061026058</v>
       </c>
       <c r="D3">
-        <v>5.831789150564728</v>
+        <v>6.786628483483533</v>
       </c>
       <c r="E3">
-        <v>15.65593839455784</v>
+        <v>27.9688544757264</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>20.66430610313226</v>
+        <v>22.4863780760856</v>
       </c>
       <c r="H3">
-        <v>11.87014552292492</v>
+        <v>7.631421179041915</v>
       </c>
       <c r="I3">
-        <v>16.16736384541136</v>
+        <v>9.938349032079314</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.55265622031093</v>
+        <v>11.04112538590281</v>
       </c>
       <c r="O3">
-        <v>17.02280610789565</v>
+        <v>13.00110637992827</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.34836711799554</v>
+        <v>19.09782328228428</v>
       </c>
       <c r="C4">
-        <v>8.976595823729708</v>
+        <v>14.73732751223512</v>
       </c>
       <c r="D4">
-        <v>5.755894916635675</v>
+        <v>6.458575776202674</v>
       </c>
       <c r="E4">
-        <v>15.04774331270542</v>
+        <v>26.55760922075317</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>20.50459626066835</v>
+        <v>21.61226012546137</v>
       </c>
       <c r="H4">
-        <v>11.89043252078503</v>
+        <v>7.574694563040693</v>
       </c>
       <c r="I4">
-        <v>16.22772418654024</v>
+        <v>9.995855293906036</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.5753219973269</v>
+        <v>11.09303964984059</v>
       </c>
       <c r="O4">
-        <v>17.02491259233098</v>
+        <v>12.72891822112179</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16739676597386</v>
+        <v>18.7217050840347</v>
       </c>
       <c r="C5">
-        <v>8.83366010069407</v>
+        <v>14.4648211053695</v>
       </c>
       <c r="D5">
-        <v>5.725126245671136</v>
+        <v>6.320527190722183</v>
       </c>
       <c r="E5">
-        <v>14.79376481470514</v>
+        <v>25.96616582231723</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>20.44182278097064</v>
+        <v>21.25381176070412</v>
       </c>
       <c r="H5">
-        <v>11.89940339836621</v>
+        <v>7.553410537585282</v>
       </c>
       <c r="I5">
-        <v>16.25346377865875</v>
+        <v>10.02292771094821</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.5849934853182</v>
+        <v>11.1150919059039</v>
       </c>
       <c r="O5">
-        <v>17.02721308293745</v>
+        <v>12.62053213915325</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.13706223331008</v>
+        <v>18.6585135570114</v>
       </c>
       <c r="C6">
-        <v>8.809669193710915</v>
+        <v>14.41907377952717</v>
       </c>
       <c r="D6">
-        <v>5.72002816601874</v>
+        <v>6.297339607680009</v>
       </c>
       <c r="E6">
-        <v>14.75123024037612</v>
+        <v>25.86696019504737</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>20.43154134691738</v>
+        <v>21.19417080480211</v>
       </c>
       <c r="H6">
-        <v>11.90093544312136</v>
+        <v>7.549985418087525</v>
       </c>
       <c r="I6">
-        <v>16.25780667015595</v>
+        <v>10.02763546545561</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.58662572115425</v>
+        <v>11.11880729899218</v>
       </c>
       <c r="O6">
-        <v>17.02768206147755</v>
+        <v>12.60269033088944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.34594568802912</v>
+        <v>19.0928002439919</v>
       </c>
       <c r="C7">
-        <v>8.974685396651475</v>
+        <v>14.73368579741515</v>
       </c>
       <c r="D7">
-        <v>5.755479251349746</v>
+        <v>6.456731727054415</v>
       </c>
       <c r="E7">
-        <v>15.04434251497534</v>
+        <v>26.54969943644513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>20.50374020740657</v>
+        <v>21.60743439522215</v>
       </c>
       <c r="H7">
-        <v>11.89055065876848</v>
+        <v>7.574400171150075</v>
       </c>
       <c r="I7">
-        <v>16.22806670099821</v>
+        <v>9.996206004077845</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.57545066822639</v>
+        <v>11.0933334474095</v>
       </c>
       <c r="O7">
-        <v>17.02493778366723</v>
+        <v>12.72744611310329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.22510256129667</v>
+        <v>20.90218982904368</v>
       </c>
       <c r="C8">
-        <v>9.665020585944543</v>
+        <v>16.04941442990558</v>
       </c>
       <c r="D8">
-        <v>5.913180466555808</v>
+        <v>7.121882209517029</v>
       </c>
       <c r="E8">
-        <v>16.28320465616874</v>
+        <v>29.41983884973802</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>20.84236819320843</v>
+        <v>23.41026319926998</v>
       </c>
       <c r="H8">
-        <v>11.85090934609924</v>
+        <v>7.698365028024353</v>
       </c>
       <c r="I8">
-        <v>16.10687160969751</v>
+        <v>9.890141234905361</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.529954764759</v>
+        <v>10.9888466619084</v>
       </c>
       <c r="O8">
-        <v>17.0254966283435</v>
+        <v>13.29995510443756</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.78666251411019</v>
+        <v>24.06846239686774</v>
       </c>
       <c r="C9">
-        <v>10.87866219674897</v>
+        <v>18.36827721207317</v>
       </c>
       <c r="D9">
-        <v>6.223804516723461</v>
+        <v>8.291578886781338</v>
       </c>
       <c r="E9">
-        <v>18.62244081700415</v>
+        <v>34.5592981073323</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>21.57201478349177</v>
+        <v>26.84770389587052</v>
       </c>
       <c r="H9">
-        <v>11.79554429394902</v>
+        <v>8.00301539565554</v>
       </c>
       <c r="I9">
-        <v>15.90561641751734</v>
+        <v>9.816904495342893</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.45441371474248</v>
+        <v>10.81378055591104</v>
       </c>
       <c r="O9">
-        <v>17.07226901834259</v>
+        <v>14.49578373686501</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.82886789669095</v>
+        <v>26.16563346053053</v>
       </c>
       <c r="C10">
-        <v>11.68240967768278</v>
+        <v>19.9140985193184</v>
       </c>
       <c r="D10">
-        <v>6.450147289272349</v>
+        <v>9.071509200124025</v>
       </c>
       <c r="E10">
-        <v>20.27898379871882</v>
+        <v>38.06228309903501</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>22.14188519452335</v>
+        <v>29.41785733867711</v>
       </c>
       <c r="H10">
-        <v>11.76862657240399</v>
+        <v>8.267000275631247</v>
       </c>
       <c r="I10">
-        <v>15.78024639288336</v>
+        <v>9.861795227310262</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.4072129491862</v>
+        <v>10.70475338429589</v>
       </c>
       <c r="O10">
-        <v>17.13449681639049</v>
+        <v>15.41448722101383</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.27929592248336</v>
+        <v>27.07097670348212</v>
       </c>
       <c r="C11">
-        <v>12.02862440457294</v>
+        <v>20.58368638471539</v>
       </c>
       <c r="D11">
-        <v>6.552173822419537</v>
+        <v>9.409683267783068</v>
       </c>
       <c r="E11">
-        <v>20.9900733905435</v>
+        <v>39.6028884764215</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>22.40709558416966</v>
+        <v>30.56983192242007</v>
       </c>
       <c r="H11">
-        <v>11.75939112611036</v>
+        <v>8.396330885018525</v>
       </c>
       <c r="I11">
-        <v>15.72816127404673</v>
+        <v>9.907224551645371</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.38753435927191</v>
+        <v>10.65975287308127</v>
       </c>
       <c r="O11">
-        <v>17.16883123613025</v>
+        <v>15.84051121773597</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.44640247704637</v>
+        <v>27.40690454999687</v>
       </c>
       <c r="C12">
-        <v>12.15691555007192</v>
+        <v>20.83247729213851</v>
       </c>
       <c r="D12">
-        <v>6.590632187705723</v>
+        <v>9.535404635634778</v>
       </c>
       <c r="E12">
-        <v>21.25327283269063</v>
+        <v>40.17925743743774</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>22.50826634546753</v>
+        <v>31.00270865202439</v>
       </c>
       <c r="H12">
-        <v>11.75632820601415</v>
+        <v>8.446675369452853</v>
       </c>
       <c r="I12">
-        <v>15.70915479669181</v>
+        <v>9.928313753603168</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.38033985909519</v>
+        <v>10.64340490776111</v>
       </c>
       <c r="O12">
-        <v>17.18269497478835</v>
+        <v>16.00297491530278</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.41056777470941</v>
+        <v>27.33486203020759</v>
       </c>
       <c r="C13">
-        <v>12.12941113538922</v>
+        <v>20.77910654985512</v>
       </c>
       <c r="D13">
-        <v>6.582357998604619</v>
+        <v>9.508431396957114</v>
       </c>
       <c r="E13">
-        <v>21.19685776348977</v>
+        <v>40.05542842370421</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>22.48644630706659</v>
+        <v>30.9096276610285</v>
       </c>
       <c r="H13">
-        <v>11.75696852017679</v>
+        <v>8.435771196032004</v>
       </c>
       <c r="I13">
-        <v>15.7132161995615</v>
+        <v>9.923594433304435</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.38187788561482</v>
+        <v>10.64689439217286</v>
       </c>
       <c r="O13">
-        <v>17.17967091928958</v>
+        <v>15.96793501120631</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.2931135166236</v>
+        <v>27.09875152597398</v>
       </c>
       <c r="C14">
-        <v>12.03923546900884</v>
+        <v>20.60424968077009</v>
       </c>
       <c r="D14">
-        <v>6.555341591525046</v>
+        <v>9.420072982641388</v>
       </c>
       <c r="E14">
-        <v>21.01184852115797</v>
+        <v>39.65044388309546</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>22.41540477778569</v>
+        <v>30.60551131019472</v>
       </c>
       <c r="H14">
-        <v>11.75913042464144</v>
+        <v>8.400445064538449</v>
       </c>
       <c r="I14">
-        <v>15.72658319630764</v>
+        <v>9.908880051564863</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.38693730855966</v>
+        <v>10.65839384163508</v>
       </c>
       <c r="O14">
-        <v>17.1699545690232</v>
+        <v>15.85385446795488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.22071724080378</v>
+        <v>26.95323059864828</v>
       </c>
       <c r="C15">
-        <v>11.98363342303385</v>
+        <v>20.49652613633403</v>
       </c>
       <c r="D15">
-        <v>6.538769025394892</v>
+        <v>9.365648056606721</v>
       </c>
       <c r="E15">
-        <v>20.89773490629673</v>
+        <v>39.40148287733523</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>22.37198285203444</v>
+        <v>30.41879891583601</v>
       </c>
       <c r="H15">
-        <v>11.76051126115182</v>
+        <v>8.378986410209817</v>
       </c>
       <c r="I15">
-        <v>15.73486441739485</v>
+        <v>9.900381651532339</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.39006985124657</v>
+        <v>10.66552878799343</v>
       </c>
       <c r="O15">
-        <v>17.16411512649496</v>
+        <v>15.78412462625128</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.79894985407603</v>
+        <v>26.10549546078723</v>
       </c>
       <c r="C16">
-        <v>11.65939112956741</v>
+        <v>19.86966831402613</v>
       </c>
       <c r="D16">
-        <v>6.443457094623099</v>
+        <v>9.04907867049905</v>
       </c>
       <c r="E16">
-        <v>20.23166051054007</v>
+        <v>37.96058446906662</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>22.12466320931076</v>
+        <v>29.34209731248767</v>
       </c>
       <c r="H16">
-        <v>11.76929082937428</v>
+        <v>8.258737652493057</v>
       </c>
       <c r="I16">
-        <v>15.78375030104624</v>
+        <v>9.859354464075167</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.40853503224276</v>
+        <v>10.7077894283907</v>
       </c>
       <c r="O16">
-        <v>17.13237389349339</v>
+        <v>15.38680566076509</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.53410116715687</v>
+        <v>25.57303436128212</v>
       </c>
       <c r="C17">
-        <v>11.45548964140566</v>
+        <v>19.47654463585326</v>
       </c>
       <c r="D17">
-        <v>6.384715413800089</v>
+        <v>8.850652845480221</v>
       </c>
       <c r="E17">
-        <v>19.81218941232551</v>
+        <v>37.06348084394408</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>21.97438679810698</v>
+        <v>28.67548180442496</v>
       </c>
       <c r="H17">
-        <v>11.77544881037528</v>
+        <v>8.187364820137745</v>
       </c>
       <c r="I17">
-        <v>15.81501115572794</v>
+        <v>9.840798893762097</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.42032175296879</v>
+        <v>10.73491408730638</v>
       </c>
       <c r="O17">
-        <v>17.11444243731378</v>
+        <v>15.1451109993902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.37954115076339</v>
+        <v>25.26218952557406</v>
       </c>
       <c r="C18">
-        <v>11.33638440833631</v>
+        <v>19.24726154976747</v>
       </c>
       <c r="D18">
-        <v>6.350842827387308</v>
+        <v>8.734955883494404</v>
       </c>
       <c r="E18">
-        <v>19.56692029329695</v>
+        <v>36.54247067678912</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>21.88852109025602</v>
+        <v>28.28979548506809</v>
       </c>
       <c r="H18">
-        <v>11.77927391016399</v>
+        <v>8.147180566550745</v>
       </c>
       <c r="I18">
-        <v>15.83345679728518</v>
+        <v>9.832463041779341</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.42726998462734</v>
+        <v>10.75094607045359</v>
       </c>
       <c r="O18">
-        <v>17.10469636299942</v>
+        <v>15.00685733445084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.3268293732094</v>
+        <v>25.15615228220277</v>
       </c>
       <c r="C19">
-        <v>11.2957444628042</v>
+        <v>19.16908421426237</v>
       </c>
       <c r="D19">
-        <v>6.339360714509079</v>
+        <v>8.695512095831706</v>
       </c>
       <c r="E19">
-        <v>19.48318826998582</v>
+        <v>36.36518669598842</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>21.85954980567455</v>
+        <v>28.1588176370409</v>
       </c>
       <c r="H19">
-        <v>11.78061761070757</v>
+        <v>8.133722642262113</v>
       </c>
       <c r="I19">
-        <v>15.83978190314152</v>
+        <v>9.830033088844273</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.42965154767777</v>
+        <v>10.75644725089579</v>
       </c>
       <c r="O19">
-        <v>17.10149411655771</v>
+        <v>14.96017925449515</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.56252559602434</v>
+        <v>25.63018988402257</v>
       </c>
       <c r="C20">
-        <v>11.47738450933224</v>
+        <v>19.51872084056993</v>
       </c>
       <c r="D20">
-        <v>6.390977771156749</v>
+        <v>8.871937494725875</v>
       </c>
       <c r="E20">
-        <v>19.85725661140079</v>
+        <v>37.15949457716545</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>21.9903259106516</v>
+        <v>28.74667828554617</v>
       </c>
       <c r="H20">
-        <v>11.77476396144029</v>
+        <v>8.194872505026281</v>
       </c>
       <c r="I20">
-        <v>15.81163519383862</v>
+        <v>9.842530194427294</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.4190495677731</v>
+        <v>10.73198183342253</v>
       </c>
       <c r="O20">
-        <v>17.11629255307798</v>
+        <v>15.17076114904768</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.32770699076428</v>
+        <v>27.16828953787684</v>
       </c>
       <c r="C21">
-        <v>12.06579872846923</v>
+        <v>20.65573817270929</v>
       </c>
       <c r="D21">
-        <v>6.563282087456327</v>
+        <v>9.446089005576418</v>
       </c>
       <c r="E21">
-        <v>21.06635481885261</v>
+        <v>39.7695832980125</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>22.43625221188587</v>
+        <v>30.69492748509296</v>
       </c>
       <c r="H21">
-        <v>11.7584836213883</v>
+        <v>8.410783697588869</v>
       </c>
       <c r="I21">
-        <v>15.72263747934831</v>
+        <v>9.913094275326337</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.38544425292459</v>
+        <v>10.65499710810423</v>
       </c>
       <c r="O21">
-        <v>17.17278514471373</v>
+        <v>15.88733190246331</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.80760737593471</v>
+        <v>28.13332408953239</v>
       </c>
       <c r="C22">
-        <v>12.43395996953183</v>
+        <v>21.37109698037161</v>
       </c>
       <c r="D22">
-        <v>6.674844322474377</v>
+        <v>9.807730427870677</v>
       </c>
       <c r="E22">
-        <v>21.82117762151871</v>
+        <v>41.43480583747316</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>22.73195799988705</v>
+        <v>31.94878282177081</v>
       </c>
       <c r="H22">
-        <v>11.75037575160867</v>
+        <v>8.559898775470012</v>
       </c>
       <c r="I22">
-        <v>15.66865441378769</v>
+        <v>9.981992626551799</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.36498106527578</v>
+        <v>10.60873753323685</v>
       </c>
       <c r="O22">
-        <v>17.21472782111734</v>
+        <v>16.49316113745422</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.55333838948734</v>
+        <v>27.62191201426439</v>
       </c>
       <c r="C23">
-        <v>12.23897167457737</v>
+        <v>20.99180989986769</v>
       </c>
       <c r="D23">
-        <v>6.615410619424999</v>
+        <v>9.615941821424206</v>
       </c>
       <c r="E23">
-        <v>21.42154180590184</v>
+        <v>40.5495496863528</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>22.57378247642988</v>
+        <v>31.28130523608371</v>
       </c>
       <c r="H23">
-        <v>11.75447090250521</v>
+        <v>8.479566865504459</v>
       </c>
       <c r="I23">
-        <v>15.69708161736706</v>
+        <v>9.943041821574253</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.37576558708895</v>
+        <v>10.63304502216959</v>
       </c>
       <c r="O23">
-        <v>17.19188463798404</v>
+        <v>16.13955943022539</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.54968205569185</v>
+        <v>25.6043645990616</v>
       </c>
       <c r="C24">
-        <v>11.4674916923801</v>
+        <v>19.49966317182711</v>
       </c>
       <c r="D24">
-        <v>6.3881468714479</v>
+        <v>8.862319752497145</v>
       </c>
       <c r="E24">
-        <v>19.83689453445091</v>
+        <v>37.11610317461202</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>21.98311817726457</v>
+        <v>28.71449796348463</v>
       </c>
       <c r="H24">
-        <v>11.77507269458999</v>
+        <v>8.191475639484121</v>
       </c>
       <c r="I24">
-        <v>15.81315999207655</v>
+        <v>9.841740231828751</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.41962418720774</v>
+        <v>10.73330614458284</v>
       </c>
       <c r="O24">
-        <v>17.11545436174204</v>
+        <v>15.1591625341967</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.38231603209362</v>
+        <v>23.25244524742057</v>
       </c>
       <c r="C25">
-        <v>10.56563656806774</v>
+        <v>17.7688469857269</v>
       </c>
       <c r="D25">
-        <v>6.139912168608453</v>
+        <v>7.989295466801102</v>
       </c>
       <c r="E25">
-        <v>17.97450847294245</v>
+        <v>33.21883158449045</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>21.36822862306475</v>
+        <v>25.92982541633839</v>
       </c>
       <c r="H25">
-        <v>11.80811386502455</v>
+        <v>7.913725800540797</v>
       </c>
       <c r="I25">
-        <v>15.95613314063993</v>
+        <v>9.82059540221873</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.47338942186599</v>
+        <v>10.85780886141831</v>
       </c>
       <c r="O25">
-        <v>17.05471845060718</v>
+        <v>14.16495597154989</v>
       </c>
     </row>
   </sheetData>
